--- a/Data/Commodore 64 Breadbin/250425/Data_250425.xlsx
+++ b/Data/Commodore 64 Breadbin/250425/Data_250425.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\Debug\Data\Commodore 64 Breadbin\250425\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E93700B-6491-4DD0-A4DB-6F7FCA9367C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11399AE-CD81-4188-AD2A-86EDB6D2848C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Images" sheetId="5" r:id="rId1"/>
+    <sheet name="Board images" sheetId="5" r:id="rId1"/>
     <sheet name="Components" sheetId="1" r:id="rId2"/>
     <sheet name="Component local files" sheetId="7" r:id="rId3"/>
     <sheet name="Component links" sheetId="8" r:id="rId4"/>
